--- a/2022/Symphony/MAY/29.05.2022/MC Bank Statement May-2022.xlsx
+++ b/2022/Symphony/MAY/29.05.2022/MC Bank Statement May-2022.xlsx
@@ -9750,11 +9750,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9769,6 +9764,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9782,8 +9782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12653,14 +12653,14 @@
         <v>1234810</v>
       </c>
       <c r="C27" s="56">
-        <v>1177060</v>
+        <v>1127060</v>
       </c>
       <c r="D27" s="53">
         <v>1970</v>
       </c>
       <c r="E27" s="53">
         <f t="shared" si="0"/>
-        <v>1179030</v>
+        <v>1129030</v>
       </c>
       <c r="F27" s="242"/>
       <c r="G27" s="251"/>
@@ -13275,7 +13275,7 @@
       </c>
       <c r="C33" s="266">
         <f>SUM(C5:C32)</f>
-        <v>15183830</v>
+        <v>15133830</v>
       </c>
       <c r="D33" s="265">
         <f>SUM(D5:D32)</f>
@@ -13283,11 +13283,11 @@
       </c>
       <c r="E33" s="265">
         <f>SUM(E5:E32)</f>
-        <v>15236030</v>
+        <v>15186030</v>
       </c>
       <c r="F33" s="265">
         <f>B33-E33</f>
-        <v>-1766140</v>
+        <v>-1716140</v>
       </c>
       <c r="G33" s="267"/>
       <c r="H33" s="145"/>
@@ -14691,7 +14691,7 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="217">
-        <v>337800</v>
+        <v>387800</v>
       </c>
       <c r="E46" s="275" t="s">
         <v>252</v>
@@ -23051,7 +23051,7 @@
       <c r="C119" s="359"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
-        <v>2513515</v>
+        <v>2563515</v>
       </c>
       <c r="E119" s="213"/>
       <c r="F119" s="144"/>
@@ -23258,7 +23258,7 @@
       <c r="C121" s="347"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
-        <v>2513515</v>
+        <v>2563515</v>
       </c>
       <c r="E121" s="213"/>
       <c r="F121" s="144"/>
@@ -34493,7 +34493,7 @@
   <dimension ref="A1:Y217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34671,7 +34671,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="285">
-        <v>318567.73607240058</v>
+        <v>268567.73607240058</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="270"/>
@@ -34733,7 +34733,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="254">
-        <v>2513515</v>
+        <v>2563515</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="116"/>
